--- a/biology/Botanique/Érable_du_Japon/Érable_du_Japon.xlsx
+++ b/biology/Botanique/Érable_du_Japon/Érable_du_Japon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89rable_du_Japon</t>
+          <t>Érable_du_Japon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acer japonicum
 L'érable du Japon (Acer japonicum) est un arbre caducifolié, d'Asie de l'Est. Il peut atteindre 12 à 15 m de haut à l'état sauvage. Il appartient à la section Palmata de la classification des érables. Vulgairement on regroupe sous la dénomination d'érable du Japon l'ensemble des érables provenant de ces régions, c'est-à-dire principalement les espèces Acer japonicum, Acer palmatum et Acer shirasawanum. Son nom vernaculaire, érable japonais, provient de l'origine géographique de sa classification par le naturaliste suédois, Carl Peter Thunberg lors d'un voyage au Japon à la fin du XVIIIe siècle.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89rable_du_Japon</t>
+          <t>Érable_du_Japon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Différence avec Acer palmatum</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>A. japonicum et A. palmatum poussent tous deux en Asie de l'Est. Pour les différencier, il faut compter les lobes de leurs feuilles et regarder comment les feuilles sont dentées.
 Érable palmé (Acer palmatum) : feuilles de 5 à 7 lobes.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89rable_du_Japon</t>
+          <t>Érable_du_Japon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Originaire des sous-bois des forêts mixtes tempérées, entre 900 et 1 800 m, de Chine (Mandchourie), de Corée, du Japon (Hokkaidō, Honshū, Kyūshū)et de Russie (îles Kouriles[1]).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire des sous-bois des forêts mixtes tempérées, entre 900 et 1 800 m, de Chine (Mandchourie), de Corée, du Japon (Hokkaidō, Honshū, Kyūshū)et de Russie (îles Kouriles).
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89rable_du_Japon</t>
+          <t>Érable_du_Japon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Principaux cultivars</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Acer japonicum 'Aconitifolium'
 Acer japonicum 'Green Cascade'
